--- a/Data/DCT121C3.xlsx
+++ b/Data/DCT121C3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>MSSV</t>
   </si>
@@ -28,28 +28,28 @@
     <t>Ngày sinh</t>
   </si>
   <si>
-    <t>19/12/2024</t>
-  </si>
-  <si>
-    <t>20/12/2024</t>
-  </si>
-  <si>
-    <t>27/12/2024</t>
-  </si>
-  <si>
-    <t>3/1/2025</t>
-  </si>
-  <si>
-    <t>10/1/2025</t>
-  </si>
-  <si>
-    <t>17/1/2025</t>
-  </si>
-  <si>
-    <t>23/1/2025</t>
-  </si>
-  <si>
-    <t>1/2/2025</t>
+    <t>19-12-2024</t>
+  </si>
+  <si>
+    <t>20-12-2024</t>
+  </si>
+  <si>
+    <t>27-12-2024</t>
+  </si>
+  <si>
+    <t>3-1-2025</t>
+  </si>
+  <si>
+    <t>10-1-2025</t>
+  </si>
+  <si>
+    <t>17-1-2025</t>
+  </si>
+  <si>
+    <t>23-1-2025</t>
+  </si>
+  <si>
+    <t>1-2-2025</t>
   </si>
   <si>
     <t>Trần Văn Hương</t>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>16-12-2003</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -770,6 +773,9 @@
       <c r="D11" t="s">
         <v>51</v>
       </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">

--- a/Data/DCT121C3.xlsx
+++ b/Data/DCT121C3.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Final_term_python\Student_attendance\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECCA3A5-33D7-47EC-82E8-ABB1EF106215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>MSSV</t>
   </si>
@@ -52,93 +58,9 @@
     <t>1-2-2025</t>
   </si>
   <si>
-    <t>Trần Văn Hương</t>
-  </si>
-  <si>
-    <t>Phạm Thị Nam</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Hải</t>
-  </si>
-  <si>
-    <t>Vũ Quốc Mai</t>
-  </si>
-  <si>
-    <t>Đặng Anh Dũng</t>
-  </si>
-  <si>
-    <t>Trần Thị Hùng</t>
-  </si>
-  <si>
-    <t>Lê Minh Dũng</t>
-  </si>
-  <si>
-    <t>Vũ Văn Mai</t>
-  </si>
-  <si>
-    <t>Nguyễn Quốc Linh</t>
-  </si>
-  <si>
-    <t>Phạm Văn Mai</t>
-  </si>
-  <si>
-    <t>Bùi Minh Hương</t>
-  </si>
-  <si>
-    <t>Phạm Minh Hùng</t>
-  </si>
-  <si>
-    <t>Đặng Gia Dũng</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Nam</t>
-  </si>
-  <si>
-    <t>Đặng Gia Lan</t>
-  </si>
-  <si>
-    <t>Lê Quốc Nam</t>
-  </si>
-  <si>
-    <t>Phạm Thị Hùng</t>
-  </si>
-  <si>
-    <t>Đặng Quốc Mai</t>
-  </si>
-  <si>
-    <t>Lê Hồng Nam</t>
-  </si>
-  <si>
-    <t>Phạm Hồng Hương</t>
-  </si>
-  <si>
-    <t>Lê Anh Lan</t>
-  </si>
-  <si>
-    <t>Trần Quốc Nam</t>
-  </si>
-  <si>
     <t>Vũ Gia Lan</t>
   </si>
   <si>
-    <t>Vũ Gia Dũng</t>
-  </si>
-  <si>
-    <t>Đặng Quốc Lan</t>
-  </si>
-  <si>
-    <t>Nguyễn Hồng Hải</t>
-  </si>
-  <si>
-    <t>Đặng Thị Hùng</t>
-  </si>
-  <si>
-    <t>Bùi Văn Hải</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Hương</t>
-  </si>
-  <si>
     <t>DCT121C3</t>
   </si>
   <si>
@@ -232,14 +154,98 @@
     <t>16-12-2003</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Trần Văn Hương Mai</t>
+  </si>
+  <si>
+    <t>Phạm Thị Mỹ Xuyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Vũ</t>
+  </si>
+  <si>
+    <t>Vũ Quốc Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Anh </t>
+  </si>
+  <si>
+    <t>Trần Thị Hằng</t>
+  </si>
+  <si>
+    <t>Lê Minh</t>
+  </si>
+  <si>
+    <t>Vũ Văn Quốc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Quốc </t>
+  </si>
+  <si>
+    <t>Phạm Văn Mai Hương</t>
+  </si>
+  <si>
+    <t>Bùi Minh Chí</t>
+  </si>
+  <si>
+    <t>Phạm Minh Hùng Cường</t>
+  </si>
+  <si>
+    <t>Đặng Gia Cường</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thành</t>
+  </si>
+  <si>
+    <t>Đặng Nam</t>
+  </si>
+  <si>
+    <t>Lê Cường Quốc Nam</t>
+  </si>
+  <si>
+    <t>Phạm Thị Tuyết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Quốc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Hồng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Hồng </t>
+  </si>
+  <si>
+    <t>Lê Ánh Lan Anh</t>
+  </si>
+  <si>
+    <t>Trần Quốc Tuấn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ Gia </t>
+  </si>
+  <si>
+    <t>Đặng Quốc Công</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng</t>
+  </si>
+  <si>
+    <t>Đặng Thị Thúy Hằng</t>
+  </si>
+  <si>
+    <t>Bùi Văn Chí</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Thương</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Mai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +308,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,9 +394,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,6 +446,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,14 +639,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,427 +695,424 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3121178601</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3121432296</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3121874536</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3121483813</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3121270679</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3121730007</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3121844226</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3121485493</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3121800179</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3121636712</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3121884430</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3121279926</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3121575873</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3121582143</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3121935776</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3121462910</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3121861936</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3121205547</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3121198217</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3121262888</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3121396873</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3121200449</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3121855715</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3121971100</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3121984951</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3121420380</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3121718271</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3121575767</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
         <v>41</v>
       </c>
-      <c r="D29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3121724672</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3121191454</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
